--- a/descarga/fiscalia_Compilado_Total.xlsx
+++ b/descarga/fiscalia_Compilado_Total.xlsx
@@ -29248,7 +29248,7 @@
         </is>
       </c>
       <c r="D932" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E932" t="inlineStr">
         <is>
@@ -29279,7 +29279,7 @@
         </is>
       </c>
       <c r="D933" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E933" t="inlineStr">
         <is>

--- a/descarga/fiscalia_Compilado_Total.xlsx
+++ b/descarga/fiscalia_Compilado_Total.xlsx
@@ -29248,7 +29248,7 @@
         </is>
       </c>
       <c r="D932" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E932" t="inlineStr">
         <is>
@@ -29279,7 +29279,7 @@
         </is>
       </c>
       <c r="D933" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E933" t="inlineStr">
         <is>
